--- a/tables/S5_spacific_area_appendix.xlsx
+++ b/tables/S5_spacific_area_appendix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikol\OneDrive\Υπολογιστής\supplement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B446D5-B874-46FC-B9E1-EB8E39710C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2096E7-BFCC-4D79-8A69-98F2751D5CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0C5A32D0-1F22-4C69-8E74-E0FF182F8778}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="18">
   <si>
     <t>ESHM20</t>
   </si>
@@ -331,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -373,25 +373,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -406,39 +439,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -773,20 +788,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD24822-53FD-4FC0-902F-D4080B614F0E}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G2"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
+      <c r="A1" s="21"/>
       <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
@@ -803,253 +818,485 @@
       <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="30" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="30" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="4">
-        <v>0</v>
+        <v>27.05</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
+        <v>44.02</v>
       </c>
       <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
+        <v>5.61</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2">
-        <v>15.56</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
+        <v>13</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37">
         <v>5.56</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
+      <c r="F7" s="37">
+        <v>45.31</v>
+      </c>
+      <c r="G7" s="37">
+        <v>0</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="7"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="7"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37">
+        <v>0</v>
+      </c>
+      <c r="F9" s="37">
+        <v>0.09</v>
+      </c>
+      <c r="G9" s="37">
+        <v>0</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37">
+        <v>0</v>
+      </c>
+      <c r="F11" s="37">
+        <v>74.81</v>
+      </c>
+      <c r="G11" s="37">
+        <v>0</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="40"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="37">
+        <v>0</v>
+      </c>
+      <c r="C13" s="37">
+        <v>0</v>
+      </c>
+      <c r="D13" s="37">
+        <v>0</v>
+      </c>
+      <c r="E13" s="37">
+        <v>0</v>
+      </c>
+      <c r="F13" s="37">
+        <v>0</v>
+      </c>
+      <c r="G13" s="37">
+        <v>0</v>
+      </c>
+      <c r="H13" s="37">
+        <v>0</v>
+      </c>
+      <c r="I13" s="37">
+        <v>0</v>
+      </c>
+      <c r="J13" s="37">
+        <v>0</v>
+      </c>
+      <c r="K13" s="37">
+        <v>0</v>
+      </c>
+      <c r="L13" s="37">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="37">
+        <v>0</v>
+      </c>
+      <c r="C15" s="37">
+        <v>15.56</v>
+      </c>
+      <c r="D15" s="37">
+        <v>0</v>
+      </c>
+      <c r="E15" s="37">
+        <v>0</v>
+      </c>
+      <c r="F15" s="37">
+        <v>5.56</v>
+      </c>
+      <c r="G15" s="37">
+        <v>0</v>
+      </c>
+      <c r="H15" s="37">
+        <v>0</v>
+      </c>
+      <c r="I15" s="37">
+        <v>0</v>
+      </c>
+      <c r="J15" s="37">
+        <v>0</v>
+      </c>
+      <c r="K15" s="37">
+        <v>0</v>
+      </c>
+      <c r="L15" s="37">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B17" s="9">
         <v>51.04</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C17" s="9">
         <v>76.849999999999994</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D17" s="9">
         <v>29.03</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E17" s="9">
         <v>46.65</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F17" s="9">
         <v>69.52</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G17" s="9">
         <v>21.7</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H17" s="9">
         <v>3.65</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I17" s="9">
         <v>28.21</v>
       </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
+      <c r="J17" s="9">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9">
         <v>15.72</v>
       </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="M17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="39"/>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="39"/>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="39"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="39"/>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="39"/>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
@@ -1061,6 +1308,13 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1071,7 +1325,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J4"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,78 +1334,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1299,7 +1553,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,7 +1567,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19"/>
+      <c r="A1" s="21"/>
       <c r="B1" s="28" t="s">
         <v>11</v>
       </c>
@@ -1328,105 +1582,105 @@
       <c r="K1" s="29"/>
       <c r="L1" s="29"/>
       <c r="M1" s="29"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="30" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="30" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="33" t="s">
+      <c r="K3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="23"/>
+      <c r="O3" s="34"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="O4" s="23"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="O4" s="34"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -1820,6 +2074,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="O1:O4"/>
+    <mergeCell ref="P1:X1"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:X2"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
@@ -1834,15 +2095,8 @@
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="O1:O4"/>
-    <mergeCell ref="P1:X1"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:X2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1868,96 +2122,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="19"/>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21" t="s">
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
     </row>
     <row r="5" spans="1:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
@@ -2257,12 +2511,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="O1:W1"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:D2"/>
@@ -2275,6 +2523,12 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
